--- a/2016.xlsx
+++ b/2016.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turnerw\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/setup/Desktop/Oral-Comps-Assigning-Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="7110"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18680" windowHeight="23340"/>
   </bookViews>
   <sheets>
     <sheet name="Student Data" sheetId="2" r:id="rId1"/>
@@ -25,9 +25,15 @@
     <definedName name="TimeSlots">Validations!$B$2:$B$8</definedName>
     <definedName name="YN">Validations!$E$2:$E$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="450">
   <si>
     <t>First Year?</t>
   </si>
@@ -745,12 +751,6 @@
     <t>Watson, Dwight E.</t>
   </si>
   <si>
-    <t>0813583</t>
-  </si>
-  <si>
-    <t>Betts, Allen</t>
-  </si>
-  <si>
     <t>0814119</t>
   </si>
   <si>
@@ -829,9 +829,6 @@
     <t>Collin J. Bell</t>
   </si>
   <si>
-    <t>Allen M. Betts</t>
-  </si>
-  <si>
     <t>Andrew D. Biddle</t>
   </si>
   <si>
@@ -1391,6 +1388,9 @@
   </si>
   <si>
     <t>Majors/Minors</t>
+  </si>
+  <si>
+    <t>Brand Selvia</t>
   </si>
 </sst>
 </file>
@@ -1435,16 +1435,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1535,9 +1535,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1570,9 +1570,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1755,20 +1755,20 @@
   <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152:XFD152"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.140625" style="8"/>
+    <col min="3" max="5" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1791,15 +1791,15 @@
         <v>10</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>811223</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>53</v>
@@ -1811,12 +1811,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>807228</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>31</v>
@@ -1825,12 +1825,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>804130</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>54</v>
@@ -1839,12 +1839,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>815936</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>51</v>
@@ -1853,12 +1853,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>806072</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>44</v>
@@ -1867,12 +1867,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>812810</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>45</v>
@@ -1881,12 +1881,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>797873</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>24</v>
@@ -1895,12 +1895,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>797258</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>45</v>
@@ -1909,12 +1909,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>800107</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>53</v>
@@ -1923,23 +1923,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>813583</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>808867</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>56</v>
@@ -1948,26 +1954,26 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>807497</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>806315</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>51</v>
@@ -1976,12 +1982,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>798291</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>51</v>
@@ -1990,12 +1996,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>816785</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -2004,12 +2010,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>788882</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>41</v>
@@ -2018,12 +2024,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>814119</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>49</v>
@@ -2032,12 +2038,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>813022</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>31</v>
@@ -2046,12 +2052,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>806363</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>41</v>
@@ -2060,12 +2066,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>791897</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>43</v>
@@ -2077,12 +2083,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>807227</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>49</v>
@@ -2091,12 +2097,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>803796</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>30</v>
@@ -2105,12 +2111,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>796216</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>24</v>
@@ -2122,12 +2128,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>806376</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>23</v>
@@ -2136,12 +2142,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>784132</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>51</v>
@@ -2150,12 +2156,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>806902</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>27</v>
@@ -2164,12 +2170,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>825824</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>49</v>
@@ -2178,12 +2184,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>351708</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>49</v>
@@ -2192,12 +2198,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>806382</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>49</v>
@@ -2206,12 +2212,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>805977</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>31</v>
@@ -2223,26 +2229,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>812909</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>796567</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>49</v>
@@ -2251,12 +2257,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>816543</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>24</v>
@@ -2265,12 +2271,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>806396</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>53</v>
@@ -2279,12 +2285,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>810767</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>31</v>
@@ -2293,12 +2299,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>805535</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>31</v>
@@ -2307,12 +2313,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>794739</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>23</v>
@@ -2321,12 +2327,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>787965</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>41</v>
@@ -2335,12 +2341,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>794461</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>23</v>
@@ -2349,12 +2355,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>782133</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>31</v>
@@ -2363,12 +2369,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>797381</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>31</v>
@@ -2377,12 +2383,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>803097</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>49</v>
@@ -2391,12 +2397,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>788274</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>24</v>
@@ -2408,12 +2414,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>815524</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>33</v>
@@ -2422,12 +2428,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>804160</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>27</v>
@@ -2439,12 +2445,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>799513</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>54</v>
@@ -2456,12 +2462,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>806426</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>53</v>
@@ -2470,12 +2476,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>802705</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>34</v>
@@ -2487,12 +2493,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>839798</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>24</v>
@@ -2501,12 +2507,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>804043</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>56</v>
@@ -2515,12 +2521,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>800847</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>34</v>
@@ -2529,12 +2535,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>805997</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>23</v>
@@ -2543,12 +2549,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>790076</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>23</v>
@@ -2560,12 +2566,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>813744</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>27</v>
@@ -2574,12 +2580,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>788440</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>53</v>
@@ -2588,12 +2594,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>795335</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>28</v>
@@ -2605,12 +2611,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>59038</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>23</v>
@@ -2619,12 +2625,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>804196</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>53</v>
@@ -2633,12 +2639,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>800833</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>30</v>
@@ -2647,12 +2653,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>804611</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>29</v>
@@ -2661,12 +2667,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>813784</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>31</v>
@@ -2675,12 +2681,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>816019</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>53</v>
@@ -2689,12 +2695,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>808884</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>23</v>
@@ -2703,12 +2709,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>791615</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>23</v>
@@ -2717,12 +2723,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>807273</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>23</v>
@@ -2731,12 +2737,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>802975</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>24</v>
@@ -2745,12 +2751,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>795532</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>49</v>
@@ -2759,12 +2765,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>817939</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>27</v>
@@ -2773,12 +2779,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>808425</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>34</v>
@@ -2787,12 +2793,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>822501</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>30</v>
@@ -2801,12 +2807,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>819887</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>56</v>
@@ -2815,12 +2821,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>816403</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>22</v>
@@ -2829,12 +2835,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>814451</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>27</v>
@@ -2843,12 +2849,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>60919</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>45</v>
@@ -2857,12 +2863,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>812298</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>44</v>
@@ -2871,12 +2877,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>796060</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>53</v>
@@ -2885,12 +2891,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>815787</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>27</v>
@@ -2899,12 +2905,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>803280</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>27</v>
@@ -2913,12 +2919,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>797814</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>27</v>
@@ -2927,12 +2933,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>808310</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>53</v>
@@ -2941,12 +2947,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>789157</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>23</v>
@@ -2958,12 +2964,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>351513</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>56</v>
@@ -2972,12 +2978,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>781658</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>49</v>
@@ -2986,12 +2992,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>806674</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>54</v>
@@ -3000,12 +3006,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>802234</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>34</v>
@@ -3014,12 +3020,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>807641</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>23</v>
@@ -3028,12 +3034,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>803426</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>27</v>
@@ -3042,12 +3048,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>855623</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>49</v>
@@ -3056,12 +3062,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>802812</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>54</v>
@@ -3070,12 +3076,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>816832</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>27</v>
@@ -3084,12 +3090,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>807519</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>56</v>
@@ -3098,15 +3104,15 @@
         <v>23</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>816967</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>23</v>
@@ -3115,12 +3121,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>808909</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>30</v>
@@ -3132,12 +3138,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>804437</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>41</v>
@@ -3146,12 +3152,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>804126</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>49</v>
@@ -3160,12 +3166,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>737220</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>23</v>
@@ -3177,12 +3183,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>782556</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>46</v>
@@ -3191,12 +3197,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>801155</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>51</v>
@@ -3205,12 +3211,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>797826</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>28</v>
@@ -3222,12 +3228,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>807280</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>53</v>
@@ -3236,12 +3242,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>793287</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>53</v>
@@ -3250,12 +3256,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>805559</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>33</v>
@@ -3264,12 +3270,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>811232</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>45</v>
@@ -3278,12 +3284,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>808482</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>49</v>
@@ -3295,12 +3301,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>816406</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>49</v>
@@ -3312,12 +3318,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>804703</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>53</v>
@@ -3329,12 +3335,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>802960</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>49</v>
@@ -3343,12 +3349,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>818328</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>27</v>
@@ -3357,12 +3363,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>803113</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>54</v>
@@ -3371,12 +3377,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>379329</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>46</v>
@@ -3385,12 +3391,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>378975</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>46</v>
@@ -3399,12 +3405,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>807653</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>51</v>
@@ -3416,12 +3422,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>788174</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>54</v>
@@ -3430,12 +3436,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>812248</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>49</v>
@@ -3444,12 +3450,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>804124</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>41</v>
@@ -3461,15 +3467,15 @@
         <v>30</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>808911</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>51</v>
@@ -3478,12 +3484,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>788359</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>24</v>
@@ -3495,12 +3501,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>811346</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>51</v>
@@ -3509,12 +3515,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>818799</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>27</v>
@@ -3526,12 +3532,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>764980</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>51</v>
@@ -3540,12 +3546,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>803581</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>30</v>
@@ -3557,12 +3563,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>747723</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>46</v>
@@ -3571,12 +3577,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>813740</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>27</v>
@@ -3585,12 +3591,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>816830</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>27</v>
@@ -3599,12 +3605,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>761631</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>54</v>
@@ -3613,12 +3619,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>807606</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>31</v>
@@ -3627,12 +3633,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>811121</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>23</v>
@@ -3641,12 +3647,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>812163</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>53</v>
@@ -3655,12 +3661,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>815977</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>34</v>
@@ -3669,12 +3675,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>792713</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>44</v>
@@ -3683,12 +3689,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>803298</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>51</v>
@@ -3697,12 +3703,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>809391</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>31</v>
@@ -3711,12 +3717,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>409104</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>51</v>
@@ -3725,12 +3731,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>762967</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>43</v>
@@ -3742,12 +3748,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>816939</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>27</v>
@@ -3756,12 +3762,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>788502</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>53</v>
@@ -3770,12 +3776,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>729966</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>23</v>
@@ -3784,15 +3790,15 @@
         <v>24</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>815017</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>28</v>
@@ -3801,12 +3807,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>812074</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>23</v>
@@ -3815,12 +3821,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
         <v>814370</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>23</v>
@@ -3829,12 +3835,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>813741</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>29</v>
@@ -3843,12 +3849,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>767054</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>41</v>
@@ -3857,12 +3863,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>810812</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>31</v>
@@ -3871,12 +3877,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>815064</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>27</v>
@@ -3885,12 +3891,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>796776</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>27</v>
@@ -3899,12 +3905,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
         <v>816215</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>49</v>
@@ -3913,12 +3919,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
         <v>787808</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>53</v>
@@ -3927,12 +3933,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
         <v>822156</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>27</v>
@@ -3941,12 +3947,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
         <v>812128</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>56</v>
@@ -3955,12 +3961,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="9">
         <v>816775</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>34</v>
@@ -3969,12 +3975,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="9">
         <v>804933</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>27</v>
@@ -3983,12 +3989,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
         <v>799084</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>53</v>
@@ -3997,12 +4003,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="9">
         <v>807158</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>49</v>
@@ -4014,12 +4020,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="9">
         <v>801457</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>31</v>
@@ -4028,12 +4034,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="9">
         <v>804034</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>31</v>
@@ -4042,12 +4048,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
         <v>806122</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>51</v>
@@ -4056,12 +4062,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="9">
         <v>814453</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>46</v>
@@ -4070,12 +4076,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="9">
         <v>806888</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>23</v>
@@ -4084,12 +4090,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="9">
         <v>812296</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>53</v>
@@ -4098,12 +4104,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="9">
         <v>806650</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>54</v>
@@ -4112,12 +4118,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="9">
         <v>806094</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>54</v>
@@ -4129,12 +4135,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="9">
         <v>796261</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>31</v>
@@ -4146,12 +4152,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="9">
         <v>802412</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>51</v>
@@ -4160,12 +4166,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="9">
         <v>810835</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>34</v>
@@ -4174,12 +4180,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="9">
         <v>810912</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>31</v>
@@ -4188,12 +4194,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="9">
         <v>798464</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>30</v>
@@ -4202,12 +4208,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="9">
         <v>805987</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>27</v>
@@ -4219,12 +4225,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="9">
         <v>805890</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>42</v>
@@ -4236,12 +4242,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>802980</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>53</v>
@@ -4250,12 +4256,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="9">
         <v>813581</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>27</v>
@@ -4264,12 +4270,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="9">
         <v>816510</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>27</v>
@@ -4281,12 +4287,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>798668</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>54</v>
@@ -4295,12 +4301,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="9">
         <v>778874</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>27</v>
@@ -4309,12 +4315,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="9">
         <v>805923</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>56</v>
@@ -4323,12 +4329,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
         <v>798595</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>54</v>
@@ -4337,12 +4343,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
         <v>803655</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>53</v>
@@ -4351,12 +4357,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>796837</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>56</v>
@@ -4365,12 +4371,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
         <v>783498</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>24</v>
@@ -4379,12 +4385,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="9">
         <v>815877</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>54</v>
@@ -4396,26 +4402,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="9">
         <v>805891</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
         <v>803921</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>31</v>
@@ -4427,12 +4433,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="9">
         <v>800305</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>28</v>
@@ -4441,12 +4447,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="9">
         <v>816514</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>51</v>
@@ -4455,12 +4461,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="9">
         <v>816358</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>27</v>
@@ -4475,12 +4481,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
         <v>807614</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>49</v>
@@ -4489,12 +4495,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="9">
         <v>814762</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>31</v>
@@ -4506,12 +4512,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="9">
         <v>836035</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>27</v>
@@ -4520,12 +4526,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="9">
         <v>833727</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>27</v>
@@ -4534,12 +4540,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="9">
         <v>828408</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>27</v>
@@ -4548,12 +4554,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="9">
         <v>829088</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>27</v>
@@ -4572,21 +4578,21 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="3" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="3" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4616,7 +4622,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>184</v>
       </c>
@@ -4630,7 +4636,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
@@ -4641,10 +4647,10 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>68</v>
       </c>
@@ -4655,7 +4661,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>186</v>
       </c>
@@ -4689,7 +4695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>72</v>
       </c>
@@ -4700,10 +4706,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>188</v>
       </c>
@@ -4714,7 +4720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>74</v>
       </c>
@@ -4725,7 +4731,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>76</v>
       </c>
@@ -4736,7 +4742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>190</v>
       </c>
@@ -4747,7 +4753,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>78</v>
       </c>
@@ -4758,7 +4764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>80</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>82</v>
       </c>
@@ -4780,10 +4786,10 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>84</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
@@ -4808,7 +4814,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>88</v>
       </c>
@@ -4819,7 +4825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>192</v>
       </c>
@@ -4830,7 +4836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -4852,7 +4858,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>194</v>
       </c>
@@ -4866,7 +4872,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>94</v>
       </c>
@@ -4877,7 +4883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
@@ -4888,7 +4894,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>98</v>
       </c>
@@ -4905,7 +4911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>100</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>196</v>
       </c>
@@ -4927,7 +4933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>198</v>
       </c>
@@ -4938,7 +4944,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>200</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>102</v>
       </c>
@@ -4960,7 +4966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>104</v>
       </c>
@@ -4971,7 +4977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>202</v>
       </c>
@@ -4985,7 +4991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>106</v>
       </c>
@@ -4996,7 +5002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>108</v>
       </c>
@@ -5013,7 +5019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>110</v>
       </c>
@@ -5024,13 +5030,13 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E34" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>112</v>
       </c>
@@ -5041,7 +5047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>114</v>
       </c>
@@ -5052,7 +5058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>204</v>
       </c>
@@ -5066,7 +5072,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -5080,7 +5086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>116</v>
       </c>
@@ -5094,7 +5100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>118</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>120</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>122</v>
       </c>
@@ -5130,7 +5136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>124</v>
       </c>
@@ -5141,10 +5147,10 @@
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>208</v>
       </c>
@@ -5158,7 +5164,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>126</v>
       </c>
@@ -5169,7 +5175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>210</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>212</v>
       </c>
@@ -5194,7 +5200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>128</v>
       </c>
@@ -5208,7 +5214,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>130</v>
       </c>
@@ -5219,7 +5225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>132</v>
       </c>
@@ -5230,7 +5236,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>134</v>
       </c>
@@ -5241,7 +5247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>136</v>
       </c>
@@ -5252,7 +5258,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>214</v>
       </c>
@@ -5263,7 +5269,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>216</v>
       </c>
@@ -5274,7 +5280,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>218</v>
       </c>
@@ -5288,7 +5294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>138</v>
       </c>
@@ -5299,7 +5305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>220</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>140</v>
       </c>
@@ -5324,7 +5330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>142</v>
       </c>
@@ -5335,10 +5341,10 @@
         <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>222</v>
       </c>
@@ -5352,7 +5358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>224</v>
       </c>
@@ -5366,7 +5372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>226</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>144</v>
       </c>
@@ -5391,7 +5397,7 @@
         <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G63" t="s">
         <v>63</v>
@@ -5400,7 +5406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>146</v>
       </c>
@@ -5414,7 +5420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>228</v>
       </c>
@@ -5428,7 +5434,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>148</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>150</v>
       </c>
@@ -5456,7 +5462,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>152</v>
       </c>
@@ -5473,7 +5479,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>154</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>230</v>
       </c>
@@ -5504,7 +5510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>232</v>
       </c>
@@ -5518,7 +5524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>156</v>
       </c>
@@ -5532,7 +5538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>158</v>
       </c>
@@ -5543,10 +5549,10 @@
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>160</v>
       </c>
@@ -5560,7 +5566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>234</v>
       </c>
@@ -5571,7 +5577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>162</v>
       </c>
@@ -5582,7 +5588,7 @@
         <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G76" t="s">
         <v>63</v>
@@ -5591,7 +5597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>164</v>
       </c>
@@ -5605,7 +5611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>166</v>
       </c>
@@ -5619,7 +5625,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>168</v>
       </c>
@@ -5633,7 +5639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>170</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>172</v>
       </c>
@@ -5702,15 +5708,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5724,7 +5730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>144</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>144</v>
       </c>
@@ -5752,7 +5758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>144</v>
       </c>
@@ -5766,7 +5772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>144</v>
       </c>
@@ -5780,7 +5786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>144</v>
       </c>
@@ -5794,7 +5800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>144</v>
       </c>
@@ -5808,7 +5814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>144</v>
       </c>
@@ -5822,7 +5828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>144</v>
       </c>
@@ -5836,7 +5842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
@@ -5850,7 +5856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>144</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>144</v>
       </c>
@@ -5878,7 +5884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>144</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>144</v>
       </c>
@@ -5906,7 +5912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>144</v>
       </c>
@@ -5920,7 +5926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>162</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>162</v>
       </c>
@@ -5948,7 +5954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>162</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>162</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>162</v>
       </c>
@@ -5990,7 +5996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>162</v>
       </c>
@@ -6004,7 +6010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>162</v>
       </c>
@@ -6018,7 +6024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>146</v>
       </c>
@@ -6032,7 +6038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>146</v>
       </c>
@@ -6046,7 +6052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>146</v>
       </c>
@@ -6060,7 +6066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>146</v>
       </c>
@@ -6074,7 +6080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>146</v>
       </c>
@@ -6088,7 +6094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>146</v>
       </c>
@@ -6102,7 +6108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>146</v>
       </c>
@@ -6116,7 +6122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>204</v>
       </c>
@@ -6130,7 +6136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>204</v>
       </c>
@@ -6144,7 +6150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>204</v>
       </c>
@@ -6158,7 +6164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>204</v>
       </c>
@@ -6172,7 +6178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>204</v>
       </c>
@@ -6186,7 +6192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>204</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>204</v>
       </c>
@@ -6214,7 +6220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>204</v>
       </c>
@@ -6228,7 +6234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>204</v>
       </c>
@@ -6242,7 +6248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>204</v>
       </c>
@@ -6256,7 +6262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>204</v>
       </c>
@@ -6270,7 +6276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>204</v>
       </c>
@@ -6284,7 +6290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>204</v>
       </c>
@@ -6298,7 +6304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>204</v>
       </c>
@@ -6312,7 +6318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>204</v>
       </c>
@@ -6326,7 +6332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>68</v>
       </c>
@@ -6340,7 +6346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>68</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>68</v>
       </c>
@@ -6368,7 +6374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>68</v>
       </c>
@@ -6382,7 +6388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>68</v>
       </c>
@@ -6396,7 +6402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>68</v>
       </c>
@@ -6410,7 +6416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>68</v>
       </c>
@@ -6424,7 +6430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>68</v>
       </c>
@@ -6438,7 +6444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>68</v>
       </c>
@@ -6452,7 +6458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>68</v>
       </c>
@@ -6466,7 +6472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>68</v>
       </c>
@@ -6480,7 +6486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>68</v>
       </c>
@@ -6494,7 +6500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>68</v>
       </c>
@@ -6508,7 +6514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>68</v>
       </c>
@@ -6522,7 +6528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>90</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>90</v>
       </c>
@@ -6550,7 +6556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>90</v>
       </c>
@@ -6564,7 +6570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>90</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>90</v>
       </c>
@@ -6592,7 +6598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>90</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>90</v>
       </c>
@@ -6620,7 +6626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>90</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>90</v>
       </c>
@@ -6648,7 +6654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>90</v>
       </c>
@@ -6662,7 +6668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>90</v>
       </c>
@@ -6676,7 +6682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>90</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>90</v>
       </c>
@@ -6704,7 +6710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>90</v>
       </c>
@@ -6718,7 +6724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>116</v>
       </c>
@@ -6732,7 +6738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>116</v>
       </c>
@@ -6746,7 +6752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>116</v>
       </c>
@@ -6760,7 +6766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>116</v>
       </c>
@@ -6774,7 +6780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>116</v>
       </c>
@@ -6788,7 +6794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>116</v>
       </c>
@@ -6802,7 +6808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>116</v>
       </c>
@@ -6843,22 +6849,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -6872,7 +6878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
@@ -6886,7 +6892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>236</v>
       </c>
@@ -6900,7 +6906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>236</v>
       </c>
@@ -6914,7 +6920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>238</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>238</v>
       </c>
@@ -6942,7 +6948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>238</v>
       </c>
@@ -6956,7 +6962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>240</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>240</v>
       </c>
@@ -6984,7 +6990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>240</v>
       </c>
@@ -6998,7 +7004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>242</v>
       </c>
@@ -7012,7 +7018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>242</v>
       </c>
@@ -7026,7 +7032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>242</v>
       </c>
@@ -7040,7 +7046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>244</v>
       </c>
@@ -7054,7 +7060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>244</v>
       </c>
@@ -7068,7 +7074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>244</v>
       </c>
@@ -7082,7 +7088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>246</v>
       </c>
@@ -7096,7 +7102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>246</v>
       </c>
@@ -7110,7 +7116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>246</v>
       </c>
@@ -7124,7 +7130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>248</v>
       </c>
@@ -7138,7 +7144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>248</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>248</v>
       </c>
@@ -7166,7 +7172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>250</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>250</v>
       </c>
@@ -7194,7 +7200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>250</v>
       </c>
@@ -7205,48 +7211,6 @@
         <v>42748</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="2">
-        <v>42748</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="2">
-        <v>42748</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B28" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="2">
-        <v>42748</v>
-      </c>
-      <c r="D28" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7268,18 +7232,18 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -7290,7 +7254,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>62</v>
@@ -7299,7 +7263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42746</v>
       </c>
@@ -7319,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42747</v>
       </c>
@@ -7339,7 +7303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42748</v>
       </c>
@@ -7356,7 +7320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -7370,7 +7334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -7384,21 +7348,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -7412,7 +7376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -7423,7 +7387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -7434,7 +7398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>40</v>
       </c>
@@ -7445,7 +7409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -7456,18 +7420,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>39</v>
       </c>
@@ -7475,7 +7439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>48</v>
       </c>
@@ -7483,7 +7447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>49</v>
       </c>
@@ -7491,7 +7455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>47</v>
       </c>
@@ -7499,23 +7463,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>56</v>
       </c>
@@ -7523,7 +7487,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>42</v>
       </c>
@@ -7531,7 +7495,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>57</v>
       </c>
@@ -7539,7 +7503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>43</v>
       </c>
@@ -7547,15 +7511,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>37</v>
       </c>
@@ -7563,7 +7527,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -7571,15 +7535,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -7587,7 +7551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>50</v>
       </c>
@@ -7595,7 +7559,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>175</v>
       </c>
@@ -7603,7 +7567,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>36</v>
       </c>
@@ -7611,23 +7575,23 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>179</v>
       </c>
@@ -7635,7 +7599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>180</v>
       </c>
@@ -7643,7 +7607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>178</v>
       </c>
@@ -7651,7 +7615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -7659,15 +7623,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -7675,7 +7639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>28</v>
       </c>
@@ -7683,7 +7647,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>53</v>
       </c>
@@ -7691,7 +7655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>54</v>
       </c>
@@ -7699,7 +7663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>30</v>
       </c>
@@ -7707,32 +7671,32 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>46</v>
       </c>

--- a/2016.xlsx
+++ b/2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18680" windowHeight="23340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18680" windowHeight="23340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Student Data" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="449">
   <si>
     <t>First Year?</t>
   </si>
@@ -1076,9 +1076,6 @@
   </si>
   <si>
     <t>Jensen A. Kirch</t>
-  </si>
-  <si>
-    <t>EMU</t>
   </si>
   <si>
     <t>Lucas T. Knutson</t>
@@ -1754,9 +1751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1928,7 +1925,7 @@
         <v>813583</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>43</v>
@@ -3104,7 +3101,7 @@
         <v>23</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>345</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3112,7 +3109,7 @@
         <v>816967</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>23</v>
@@ -3126,7 +3123,7 @@
         <v>808909</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>30</v>
@@ -3143,7 +3140,7 @@
         <v>804437</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>41</v>
@@ -3157,7 +3154,7 @@
         <v>804126</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>49</v>
@@ -3171,7 +3168,7 @@
         <v>737220</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>23</v>
@@ -3188,7 +3185,7 @@
         <v>782556</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>46</v>
@@ -3202,7 +3199,7 @@
         <v>801155</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>51</v>
@@ -3216,7 +3213,7 @@
         <v>797826</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>28</v>
@@ -3233,7 +3230,7 @@
         <v>807280</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>53</v>
@@ -3247,7 +3244,7 @@
         <v>793287</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>53</v>
@@ -3261,7 +3258,7 @@
         <v>805559</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>33</v>
@@ -3275,7 +3272,7 @@
         <v>811232</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>45</v>
@@ -3289,7 +3286,7 @@
         <v>808482</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>49</v>
@@ -3306,7 +3303,7 @@
         <v>816406</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>49</v>
@@ -3323,7 +3320,7 @@
         <v>804703</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>53</v>
@@ -3340,7 +3337,7 @@
         <v>802960</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>49</v>
@@ -3354,7 +3351,7 @@
         <v>818328</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>27</v>
@@ -3368,7 +3365,7 @@
         <v>803113</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>54</v>
@@ -3382,7 +3379,7 @@
         <v>379329</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>46</v>
@@ -3396,7 +3393,7 @@
         <v>378975</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>46</v>
@@ -3410,7 +3407,7 @@
         <v>807653</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>51</v>
@@ -3427,7 +3424,7 @@
         <v>788174</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>54</v>
@@ -3441,7 +3438,7 @@
         <v>812248</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>49</v>
@@ -3455,7 +3452,7 @@
         <v>804124</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>41</v>
@@ -3475,7 +3472,7 @@
         <v>808911</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>51</v>
@@ -3489,7 +3486,7 @@
         <v>788359</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>24</v>
@@ -3506,7 +3503,7 @@
         <v>811346</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>51</v>
@@ -3520,7 +3517,7 @@
         <v>818799</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>27</v>
@@ -3537,7 +3534,7 @@
         <v>764980</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>51</v>
@@ -3551,7 +3548,7 @@
         <v>803581</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>30</v>
@@ -3568,7 +3565,7 @@
         <v>747723</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>46</v>
@@ -3582,7 +3579,7 @@
         <v>813740</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>27</v>
@@ -3596,7 +3593,7 @@
         <v>816830</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>27</v>
@@ -3610,7 +3607,7 @@
         <v>761631</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>54</v>
@@ -3624,7 +3621,7 @@
         <v>807606</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>31</v>
@@ -3638,7 +3635,7 @@
         <v>811121</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>23</v>
@@ -3652,7 +3649,7 @@
         <v>812163</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>53</v>
@@ -3666,7 +3663,7 @@
         <v>815977</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>34</v>
@@ -3680,7 +3677,7 @@
         <v>792713</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>44</v>
@@ -3694,7 +3691,7 @@
         <v>803298</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>51</v>
@@ -3708,7 +3705,7 @@
         <v>809391</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>31</v>
@@ -3722,7 +3719,7 @@
         <v>409104</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>51</v>
@@ -3736,7 +3733,7 @@
         <v>762967</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>43</v>
@@ -3753,7 +3750,7 @@
         <v>816939</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>27</v>
@@ -3767,7 +3764,7 @@
         <v>788502</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>53</v>
@@ -3781,7 +3778,7 @@
         <v>729966</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>23</v>
@@ -3790,7 +3787,7 @@
         <v>24</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -3798,7 +3795,7 @@
         <v>815017</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>28</v>
@@ -3812,7 +3809,7 @@
         <v>812074</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>23</v>
@@ -3826,7 +3823,7 @@
         <v>814370</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>23</v>
@@ -3840,7 +3837,7 @@
         <v>813741</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>29</v>
@@ -3854,7 +3851,7 @@
         <v>767054</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>41</v>
@@ -3868,7 +3865,7 @@
         <v>810812</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>31</v>
@@ -3882,7 +3879,7 @@
         <v>815064</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>27</v>
@@ -3896,7 +3893,7 @@
         <v>796776</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>27</v>
@@ -3910,7 +3907,7 @@
         <v>816215</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>49</v>
@@ -3924,7 +3921,7 @@
         <v>787808</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>53</v>
@@ -3938,7 +3935,7 @@
         <v>822156</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>27</v>
@@ -3952,7 +3949,7 @@
         <v>812128</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>56</v>
@@ -3966,7 +3963,7 @@
         <v>816775</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>34</v>
@@ -3980,7 +3977,7 @@
         <v>804933</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>27</v>
@@ -3994,7 +3991,7 @@
         <v>799084</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>53</v>
@@ -4008,7 +4005,7 @@
         <v>807158</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>49</v>
@@ -4025,7 +4022,7 @@
         <v>801457</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>31</v>
@@ -4039,7 +4036,7 @@
         <v>804034</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>31</v>
@@ -4053,7 +4050,7 @@
         <v>806122</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>51</v>
@@ -4067,7 +4064,7 @@
         <v>814453</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>46</v>
@@ -4081,7 +4078,7 @@
         <v>806888</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>23</v>
@@ -4095,7 +4092,7 @@
         <v>812296</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>53</v>
@@ -4109,7 +4106,7 @@
         <v>806650</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>54</v>
@@ -4123,7 +4120,7 @@
         <v>806094</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>54</v>
@@ -4140,7 +4137,7 @@
         <v>796261</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>31</v>
@@ -4157,7 +4154,7 @@
         <v>802412</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>51</v>
@@ -4171,7 +4168,7 @@
         <v>810835</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>34</v>
@@ -4185,7 +4182,7 @@
         <v>810912</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>31</v>
@@ -4199,7 +4196,7 @@
         <v>798464</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>30</v>
@@ -4213,7 +4210,7 @@
         <v>805987</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>27</v>
@@ -4230,7 +4227,7 @@
         <v>805890</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>42</v>
@@ -4247,7 +4244,7 @@
         <v>802980</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>53</v>
@@ -4261,7 +4258,7 @@
         <v>813581</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>27</v>
@@ -4275,7 +4272,7 @@
         <v>816510</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>27</v>
@@ -4292,7 +4289,7 @@
         <v>798668</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>54</v>
@@ -4306,7 +4303,7 @@
         <v>778874</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>27</v>
@@ -4320,7 +4317,7 @@
         <v>805923</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>56</v>
@@ -4334,7 +4331,7 @@
         <v>798595</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>54</v>
@@ -4348,7 +4345,7 @@
         <v>803655</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>53</v>
@@ -4362,7 +4359,7 @@
         <v>796837</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>56</v>
@@ -4376,7 +4373,7 @@
         <v>783498</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>24</v>
@@ -4390,7 +4387,7 @@
         <v>815877</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>54</v>
@@ -4407,7 +4404,7 @@
         <v>805891</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>30</v>
@@ -4421,7 +4418,7 @@
         <v>803921</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>31</v>
@@ -4438,7 +4435,7 @@
         <v>800305</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>28</v>
@@ -4452,7 +4449,7 @@
         <v>816514</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>51</v>
@@ -4466,7 +4463,7 @@
         <v>816358</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>27</v>
@@ -4486,7 +4483,7 @@
         <v>807614</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>49</v>
@@ -4500,7 +4497,7 @@
         <v>814762</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>31</v>
@@ -4517,7 +4514,7 @@
         <v>836035</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>27</v>
@@ -4531,7 +4528,7 @@
         <v>833727</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>27</v>
@@ -4545,7 +4542,7 @@
         <v>828408</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>27</v>
@@ -4559,7 +4556,7 @@
         <v>829088</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>27</v>
@@ -4577,9 +4574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4706,7 +4703,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -5030,7 +5027,7 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E34" t="s">
         <v>264</v>
@@ -5549,7 +5546,7 @@
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -5704,8 +5701,8 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7231,8 +7228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7254,7 +7251,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>62</v>
@@ -7353,10 +7350,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -7468,7 +7465,7 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -7513,7 +7510,7 @@
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
@@ -7588,7 +7585,7 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
@@ -7625,7 +7622,7 @@
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
